--- a/ExcelSheets/Facebook.xlsx
+++ b/ExcelSheets/Facebook.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Selenium Practical\JunitTasks\ExcelSheets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C8888A-E2B3-4432-98E7-425EF79FED82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D71D63EE-996F-4FD4-95DF-115B9A144B56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7A5047F0-8047-4D96-B63D-A5B21114DCCB}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="19460" windowHeight="11060" xr2:uid="{7A5047F0-8047-4D96-B63D-A5B21114DCCB}"/>
   </bookViews>
   <sheets>
     <sheet name="Face Book" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
